--- a/Estimation_Records/loss 5 50 2/1MB loss 5 50.xlsx
+++ b/Estimation_Records/loss 5 50 2/1MB loss 5 50.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Technion\CommunicationProject\LCCN_Delay_Bit_RTT_Estimator\Estimation_Records\loss 5 50 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Technion\semester8\delayBit\LCCN_Delay_Bit_RTT_Estimator\Estimation_Records\loss 5 50 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{196727DC-01C4-4D38-BF11-B33ADA50B25C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F31D143-4B7C-4BBE-92DC-05114D0A2487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F879301E-08CA-4326-8C5D-3530C81BCC3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +23,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="9">
   <si>
     <t>SERVER TO CLIENT:</t>
   </si>
@@ -58,12 +61,15 @@
   <si>
     <t>CLIENT TO SERVER:</t>
   </si>
+  <si>
+    <t>5% Loss On 50% Burst</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,6 +80,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF212529"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -99,9 +112,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -195,7 +209,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="LID4096"/>
+          <a:endParaRPr lang="en-IL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -634,7 +648,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$8:$G$57</c:f>
+              <c:f>Sheet1!$H$8:$H$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -793,7 +807,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$H$8:$H$57</c:f>
+              <c:f>Sheet1!$I$8:$I$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -1041,7 +1055,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="LID4096"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1079,7 +1093,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="LID4096"/>
+            <a:endParaRPr lang="en-IL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="519209311"/>
@@ -1164,7 +1178,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="LID4096"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1202,7 +1216,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="LID4096"/>
+            <a:endParaRPr lang="en-IL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="519198911"/>
@@ -1244,7 +1258,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="LID4096"/>
+          <a:endParaRPr lang="en-IL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1281,7 +1295,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="LID4096"/>
+      <a:endParaRPr lang="en-IL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1368,7 +1382,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="LID4096"/>
+          <a:endParaRPr lang="en-IL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1781,7 +1795,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$67:$G$116</c:f>
+              <c:f>Sheet1!$H$67:$H$116</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -1940,7 +1954,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$H$67:$H$116</c:f>
+              <c:f>Sheet1!$I$67:$I$116</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="50"/>
@@ -2188,7 +2202,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="LID4096"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2226,7 +2240,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="LID4096"/>
+            <a:endParaRPr lang="en-IL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="519209311"/>
@@ -2311,7 +2325,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="LID4096"/>
+              <a:endParaRPr lang="en-IL"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2349,7 +2363,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="LID4096"/>
+            <a:endParaRPr lang="en-IL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="519198911"/>
@@ -2391,7 +2405,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="LID4096"/>
+          <a:endParaRPr lang="en-IL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2428,7 +2442,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="LID4096"/>
+      <a:endParaRPr lang="en-IL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3593,16 +3607,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>60064</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>98164</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>30481</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3929,15 +3943,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02437C0D-00FD-4B74-96FB-66F97659E713}">
-  <dimension ref="A3:M117"/>
+  <dimension ref="A1:M117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="R63" sqref="R63"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -3947,16 +3964,25 @@
       <c r="D3">
         <v>25.503937000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>25.503937000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -3966,17 +3992,17 @@
       <c r="C7" t="s">
         <v>6</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>4</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>5</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>25.832978000000001</v>
       </c>
@@ -3987,18 +4013,18 @@
       <c r="C8">
         <v>305.07900000000001</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>25.851457</v>
       </c>
-      <c r="G8">
-        <f>$F8-$D$3</f>
+      <c r="H8">
+        <f>$G8-$D$3</f>
         <v>0.34751999999999938</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>18.478999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>25.851457</v>
       </c>
@@ -4009,18 +4035,18 @@
       <c r="C9">
         <v>18.478999999999999</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>25.877237000000001</v>
       </c>
-      <c r="G9">
-        <f t="shared" ref="G9:G57" si="1">$F9-$D$3</f>
+      <c r="H9">
+        <f>$G9-$D$3</f>
         <v>0.37330000000000041</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>25.78</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>25.877237000000001</v>
       </c>
@@ -4031,18 +4057,18 @@
       <c r="C10">
         <v>25.78</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>25.898962000000001</v>
       </c>
-      <c r="G10">
-        <f t="shared" si="1"/>
+      <c r="H10">
+        <f>$G10-$D$3</f>
         <v>0.3950250000000004</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>21.725000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>25.898962000000001</v>
       </c>
@@ -4053,18 +4079,18 @@
       <c r="C11">
         <v>21.725000000000001</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>25.913450000000001</v>
       </c>
-      <c r="G11">
-        <f t="shared" si="1"/>
+      <c r="H11">
+        <f>$G11-$D$3</f>
         <v>0.40951300000000046</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>14.489000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>25.913450000000001</v>
       </c>
@@ -4075,18 +4101,18 @@
       <c r="C12">
         <v>14.489000000000001</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>25.927568000000001</v>
       </c>
-      <c r="G12">
-        <f t="shared" si="1"/>
+      <c r="H12">
+        <f>$G12-$D$3</f>
         <v>0.42363100000000031</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>14.118</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>25.927568000000001</v>
       </c>
@@ -4097,18 +4123,18 @@
       <c r="C13">
         <v>14.118</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>25.942927999999998</v>
       </c>
-      <c r="G13">
-        <f t="shared" si="1"/>
+      <c r="H13">
+        <f>$G13-$D$3</f>
         <v>0.43899099999999791</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>15.359</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>25.942927999999998</v>
       </c>
@@ -4119,18 +4145,18 @@
       <c r="C14">
         <v>15.359</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>25.969156999999999</v>
       </c>
-      <c r="G14">
-        <f t="shared" si="1"/>
+      <c r="H14">
+        <f>$G14-$D$3</f>
         <v>0.46521999999999863</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>26.23</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>25.969156999999999</v>
       </c>
@@ -4141,18 +4167,18 @@
       <c r="C15">
         <v>26.23</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>25.983685000000001</v>
       </c>
-      <c r="G15">
-        <f t="shared" si="1"/>
+      <c r="H15">
+        <f>$G15-$D$3</f>
         <v>0.47974800000000073</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>14.528</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>25.983685000000001</v>
       </c>
@@ -4163,18 +4189,18 @@
       <c r="C16">
         <v>14.528</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>25.999535999999999</v>
       </c>
-      <c r="G16">
-        <f t="shared" si="1"/>
+      <c r="H16">
+        <f>$G16-$D$3</f>
         <v>0.49559899999999857</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>15.851000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>25.999535999999999</v>
       </c>
@@ -4185,18 +4211,18 @@
       <c r="C17">
         <v>15.851000000000001</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>26.014627999999998</v>
       </c>
-      <c r="G17">
-        <f t="shared" si="1"/>
+      <c r="H17">
+        <f>$G17-$D$3</f>
         <v>0.51069099999999779</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>15.092000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>26.014627999999998</v>
       </c>
@@ -4207,18 +4233,18 @@
       <c r="C18">
         <v>15.092000000000001</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>26.031673000000001</v>
       </c>
-      <c r="G18">
-        <f t="shared" si="1"/>
+      <c r="H18">
+        <f>$G18-$D$3</f>
         <v>0.52773600000000087</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>17.045000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>26.031673000000001</v>
       </c>
@@ -4229,18 +4255,18 @@
       <c r="C19">
         <v>17.045000000000002</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>26.047135000000001</v>
       </c>
-      <c r="G19">
-        <f t="shared" si="1"/>
+      <c r="H19">
+        <f>$G19-$D$3</f>
         <v>0.54319800000000029</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>15.461</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>26.047135000000001</v>
       </c>
@@ -4251,18 +4277,18 @@
       <c r="C20">
         <v>15.461</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>26.064119000000002</v>
       </c>
-      <c r="G20">
-        <f t="shared" si="1"/>
+      <c r="H20">
+        <f>$G20-$D$3</f>
         <v>0.56018200000000107</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>16.984000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>26.064119000000002</v>
       </c>
@@ -4273,18 +4299,18 @@
       <c r="C21">
         <v>16.984000000000002</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>26.076946</v>
       </c>
-      <c r="G21">
-        <f t="shared" si="1"/>
+      <c r="H21">
+        <f>$G21-$D$3</f>
         <v>0.57300899999999899</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>12.827</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>26.076946</v>
       </c>
@@ -4295,18 +4321,18 @@
       <c r="C22">
         <v>12.827</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>26.093637999999999</v>
       </c>
-      <c r="G22">
-        <f t="shared" si="1"/>
+      <c r="H22">
+        <f>$G22-$D$3</f>
         <v>0.58970099999999803</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>16.693000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>26.093637999999999</v>
       </c>
@@ -4317,18 +4343,18 @@
       <c r="C23">
         <v>16.693000000000001</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>26.107852999999999</v>
       </c>
-      <c r="G23">
-        <f t="shared" si="1"/>
+      <c r="H23">
+        <f>$G23-$D$3</f>
         <v>0.60391599999999812</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>14.215</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>26.107852999999999</v>
       </c>
@@ -4339,18 +4365,18 @@
       <c r="C24">
         <v>14.215</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>26.124514000000001</v>
       </c>
-      <c r="G24">
-        <f t="shared" si="1"/>
+      <c r="H24">
+        <f>$G24-$D$3</f>
         <v>0.62057700000000082</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>16.66</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>26.124514000000001</v>
       </c>
@@ -4361,18 +4387,18 @@
       <c r="C25">
         <v>16.66</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>26.139827</v>
       </c>
-      <c r="G25">
-        <f t="shared" si="1"/>
+      <c r="H25">
+        <f>$G25-$D$3</f>
         <v>0.63588999999999984</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>15.314</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>26.139827</v>
       </c>
@@ -4383,18 +4409,18 @@
       <c r="C26">
         <v>15.314</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>26.155566</v>
       </c>
-      <c r="G26">
-        <f t="shared" si="1"/>
+      <c r="H26">
+        <f>$G26-$D$3</f>
         <v>0.65162899999999979</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>15.739000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26.155566</v>
       </c>
@@ -4405,18 +4431,18 @@
       <c r="C27">
         <v>15.739000000000001</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>26.170767000000001</v>
       </c>
-      <c r="G27">
-        <f t="shared" si="1"/>
+      <c r="H27">
+        <f>$G27-$D$3</f>
         <v>0.66683000000000092</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>15.2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26.170767000000001</v>
       </c>
@@ -4427,18 +4453,18 @@
       <c r="C28">
         <v>15.2</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>26.188141999999999</v>
       </c>
-      <c r="G28">
-        <f t="shared" si="1"/>
+      <c r="H28">
+        <f>$G28-$D$3</f>
         <v>0.68420499999999862</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>17.375</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>26.188141999999999</v>
       </c>
@@ -4449,18 +4475,18 @@
       <c r="C29">
         <v>17.375</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>26.202266000000002</v>
       </c>
-      <c r="G29">
-        <f t="shared" si="1"/>
+      <c r="H29">
+        <f>$G29-$D$3</f>
         <v>0.69832900000000109</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>14.125</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>26.202266000000002</v>
       </c>
@@ -4471,18 +4497,18 @@
       <c r="C30">
         <v>14.125</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>26.217359999999999</v>
       </c>
-      <c r="G30">
-        <f t="shared" si="1"/>
+      <c r="H30">
+        <f>$G30-$D$3</f>
         <v>0.71342299999999881</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>15.093</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>26.217359999999999</v>
       </c>
@@ -4493,18 +4519,18 @@
       <c r="C31">
         <v>15.093</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>26.234306</v>
       </c>
-      <c r="G31">
-        <f t="shared" si="1"/>
+      <c r="H31">
+        <f>$G31-$D$3</f>
         <v>0.7303689999999996</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>16.946000000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>26.234306</v>
       </c>
@@ -4515,18 +4541,18 @@
       <c r="C32">
         <v>16.946000000000002</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>26.252091</v>
       </c>
-      <c r="G32">
-        <f t="shared" si="1"/>
+      <c r="H32">
+        <f>$G32-$D$3</f>
         <v>0.74815399999999954</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>17.786000000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>26.252091</v>
       </c>
@@ -4537,18 +4563,18 @@
       <c r="C33">
         <v>17.786000000000001</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>26.265666</v>
       </c>
-      <c r="G33">
-        <f t="shared" si="1"/>
+      <c r="H33">
+        <f>$G33-$D$3</f>
         <v>0.76172899999999899</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>13.574999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>26.265666</v>
       </c>
@@ -4559,18 +4585,18 @@
       <c r="C34">
         <v>13.574999999999999</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>26.281099999999999</v>
       </c>
-      <c r="G34">
-        <f t="shared" si="1"/>
+      <c r="H34">
+        <f>$G34-$D$3</f>
         <v>0.77716299999999805</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>15.433</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>26.281099999999999</v>
       </c>
@@ -4581,18 +4607,18 @@
       <c r="C35">
         <v>15.433</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>26.296351000000001</v>
       </c>
-      <c r="G35">
-        <f t="shared" si="1"/>
+      <c r="H35">
+        <f>$G35-$D$3</f>
         <v>0.79241400000000084</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>15.252000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>26.296351000000001</v>
       </c>
@@ -4603,18 +4629,18 @@
       <c r="C36">
         <v>15.252000000000001</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>26.311644999999999</v>
       </c>
-      <c r="G36">
-        <f t="shared" si="1"/>
+      <c r="H36">
+        <f>$G36-$D$3</f>
         <v>0.80770799999999809</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>15.292999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>26.311644999999999</v>
       </c>
@@ -4625,18 +4651,18 @@
       <c r="C37">
         <v>15.292999999999999</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>26.327721</v>
       </c>
-      <c r="G37">
-        <f t="shared" si="1"/>
+      <c r="H37">
+        <f>$G37-$D$3</f>
         <v>0.82378399999999985</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>16.076000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>26.327721</v>
       </c>
@@ -4647,18 +4673,18 @@
       <c r="C38">
         <v>16.076000000000001</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>26.342762</v>
       </c>
-      <c r="G38">
-        <f t="shared" si="1"/>
+      <c r="H38">
+        <f>$G38-$D$3</f>
         <v>0.83882499999999993</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>15.042</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>26.342762</v>
       </c>
@@ -4669,18 +4695,18 @@
       <c r="C39">
         <v>15.042</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>26.358771000000001</v>
       </c>
-      <c r="G39">
-        <f t="shared" si="1"/>
+      <c r="H39">
+        <f>$G39-$D$3</f>
         <v>0.85483400000000032</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>16.007999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>26.358771000000001</v>
       </c>
@@ -4691,18 +4717,18 @@
       <c r="C40">
         <v>16.007999999999999</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>26.375648000000002</v>
       </c>
-      <c r="G40">
-        <f t="shared" si="1"/>
+      <c r="H40">
+        <f>$G40-$D$3</f>
         <v>0.87171100000000123</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>16.876999999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>26.375648000000002</v>
       </c>
@@ -4713,18 +4739,18 @@
       <c r="C41">
         <v>16.876999999999999</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>26.389634999999998</v>
       </c>
-      <c r="G41">
-        <f t="shared" si="1"/>
+      <c r="H41">
+        <f>$G41-$D$3</f>
         <v>0.88569799999999788</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>13.987</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>26.389634999999998</v>
       </c>
@@ -4735,18 +4761,18 @@
       <c r="C42">
         <v>13.987</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>26.403148000000002</v>
       </c>
-      <c r="G42">
-        <f t="shared" si="1"/>
+      <c r="H42">
+        <f>$G42-$D$3</f>
         <v>0.89921100000000109</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>13.513999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>26.403148000000002</v>
       </c>
@@ -4757,18 +4783,18 @@
       <c r="C43">
         <v>13.513999999999999</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>26.420300000000001</v>
       </c>
-      <c r="G43">
-        <f t="shared" si="1"/>
+      <c r="H43">
+        <f>$G43-$D$3</f>
         <v>0.91636300000000048</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>17.152000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>26.420300000000001</v>
       </c>
@@ -4779,18 +4805,18 @@
       <c r="C44">
         <v>17.152000000000001</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>26.436305000000001</v>
       </c>
-      <c r="G44">
-        <f t="shared" si="1"/>
+      <c r="H44">
+        <f>$G44-$D$3</f>
         <v>0.93236800000000031</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>16.004000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>26.436305000000001</v>
       </c>
@@ -4801,18 +4827,18 @@
       <c r="C45">
         <v>16.004000000000001</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>26.453783000000001</v>
       </c>
-      <c r="G45">
-        <f t="shared" si="1"/>
+      <c r="H45">
+        <f>$G45-$D$3</f>
         <v>0.94984600000000086</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>17.478000000000002</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>26.453783000000001</v>
       </c>
@@ -4823,18 +4849,18 @@
       <c r="C46">
         <v>17.478000000000002</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>26.467435999999999</v>
       </c>
-      <c r="G46">
-        <f t="shared" si="1"/>
+      <c r="H46">
+        <f>$G46-$D$3</f>
         <v>0.96349899999999877</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>13.653</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>26.467435999999999</v>
       </c>
@@ -4845,18 +4871,18 @@
       <c r="C47">
         <v>13.653</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>26.479313999999999</v>
       </c>
-      <c r="G47">
-        <f t="shared" si="1"/>
+      <c r="H47">
+        <f>$G47-$D$3</f>
         <v>0.97537699999999816</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>11.878</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>26.479313999999999</v>
       </c>
@@ -4867,18 +4893,18 @@
       <c r="C48">
         <v>11.878</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>26.491441999999999</v>
       </c>
-      <c r="G48">
-        <f t="shared" si="1"/>
+      <c r="H48">
+        <f>$G48-$D$3</f>
         <v>0.98750499999999874</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <v>12.129</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>26.491441999999999</v>
       </c>
@@ -4889,18 +4915,18 @@
       <c r="C49">
         <v>12.129</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>26.509274000000001</v>
       </c>
-      <c r="G49">
-        <f t="shared" si="1"/>
+      <c r="H49">
+        <f>$G49-$D$3</f>
         <v>1.0053370000000008</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <v>17.832000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>26.509274000000001</v>
       </c>
@@ -4911,18 +4937,18 @@
       <c r="C50">
         <v>17.832000000000001</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>26.523505</v>
       </c>
-      <c r="G50">
-        <f t="shared" si="1"/>
+      <c r="H50">
+        <f>$G50-$D$3</f>
         <v>1.0195679999999996</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <v>14.231</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>26.523505</v>
       </c>
@@ -4933,18 +4959,18 @@
       <c r="C51">
         <v>14.231</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>26.541111999999998</v>
       </c>
-      <c r="G51">
-        <f t="shared" si="1"/>
+      <c r="H51">
+        <f>$G51-$D$3</f>
         <v>1.0371749999999977</v>
       </c>
-      <c r="H51">
+      <c r="I51">
         <v>17.606999999999999</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>26.541111999999998</v>
       </c>
@@ -4955,18 +4981,18 @@
       <c r="C52">
         <v>17.606999999999999</v>
       </c>
-      <c r="F52">
+      <c r="G52">
         <v>26.555707999999999</v>
       </c>
-      <c r="G52">
-        <f t="shared" si="1"/>
+      <c r="H52">
+        <f>$G52-$D$3</f>
         <v>1.0517709999999987</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <v>14.596</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>26.555707999999999</v>
       </c>
@@ -4977,18 +5003,18 @@
       <c r="C53">
         <v>14.596</v>
       </c>
-      <c r="F53">
+      <c r="G53">
         <v>26.569655000000001</v>
       </c>
-      <c r="G53">
-        <f t="shared" si="1"/>
+      <c r="H53">
+        <f>$G53-$D$3</f>
         <v>1.0657180000000004</v>
       </c>
-      <c r="H53">
+      <c r="I53">
         <v>13.946999999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>26.569655000000001</v>
       </c>
@@ -4999,18 +5025,18 @@
       <c r="C54">
         <v>13.946999999999999</v>
       </c>
-      <c r="F54">
+      <c r="G54">
         <v>26.586874000000002</v>
       </c>
-      <c r="G54">
-        <f t="shared" si="1"/>
+      <c r="H54">
+        <f>$G54-$D$3</f>
         <v>1.0829370000000011</v>
       </c>
-      <c r="H54">
+      <c r="I54">
         <v>17.218</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>26.586874000000002</v>
       </c>
@@ -5021,18 +5047,18 @@
       <c r="C55">
         <v>17.218</v>
       </c>
-      <c r="F55">
+      <c r="G55">
         <v>26.604196000000002</v>
       </c>
-      <c r="G55">
-        <f t="shared" si="1"/>
+      <c r="H55">
+        <f>$G55-$D$3</f>
         <v>1.1002590000000012</v>
       </c>
-      <c r="H55">
+      <c r="I55">
         <v>17.321999999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>26.604196000000002</v>
       </c>
@@ -5043,18 +5069,18 @@
       <c r="C56">
         <v>17.321999999999999</v>
       </c>
-      <c r="F56">
+      <c r="G56">
         <v>26.623075</v>
       </c>
-      <c r="G56">
-        <f t="shared" si="1"/>
+      <c r="H56">
+        <f>$G56-$D$3</f>
         <v>1.1191379999999995</v>
       </c>
-      <c r="H56">
+      <c r="I56">
         <v>18.88</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>26.623075</v>
       </c>
@@ -5065,18 +5091,18 @@
       <c r="C57">
         <v>18.88</v>
       </c>
-      <c r="F57">
+      <c r="G57">
         <v>26.647026</v>
       </c>
-      <c r="G57">
-        <f t="shared" si="1"/>
+      <c r="H57">
+        <f>$G57-$D$3</f>
         <v>1.1430889999999998</v>
       </c>
-      <c r="H57">
+      <c r="I57">
         <v>23.95</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>26.647026</v>
       </c>
@@ -5088,8 +5114,11 @@
         <v>23.95</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
+        <v>7</v>
+      </c>
+      <c r="G62" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5097,7 +5126,7 @@
       <c r="A65" t="s">
         <v>2</v>
       </c>
-      <c r="F65" t="s">
+      <c r="G65" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5111,13 +5140,13 @@
       <c r="C66" t="s">
         <v>6</v>
       </c>
-      <c r="F66" t="s">
+      <c r="G66" t="s">
         <v>4</v>
       </c>
-      <c r="G66" t="s">
+      <c r="H66" t="s">
         <v>5</v>
       </c>
-      <c r="H66" t="s">
+      <c r="I66" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5132,14 +5161,14 @@
       <c r="C67">
         <v>20.059000000000001</v>
       </c>
-      <c r="F67">
+      <c r="G67">
         <v>25.864643999999998</v>
       </c>
-      <c r="G67">
-        <f>F67-$D$3</f>
+      <c r="H67">
+        <f>G67-$D$3</f>
         <v>0.36070699999999789</v>
       </c>
-      <c r="H67">
+      <c r="I67">
         <v>26.116</v>
       </c>
     </row>
@@ -5148,20 +5177,20 @@
         <v>25.864643999999998</v>
       </c>
       <c r="B68">
-        <f t="shared" ref="B68:B117" si="2">A68-$D$3</f>
+        <f t="shared" ref="B68:B117" si="1">A68-$D$3</f>
         <v>0.36070699999999789</v>
       </c>
       <c r="C68">
         <v>26.116</v>
       </c>
-      <c r="F68">
+      <c r="G68">
         <v>25.882570999999999</v>
       </c>
-      <c r="G68">
-        <f t="shared" ref="G68:G116" si="3">F68-$D$3</f>
+      <c r="H68">
+        <f t="shared" ref="H68:H116" si="2">G68-$D$3</f>
         <v>0.37863399999999814</v>
       </c>
-      <c r="H68">
+      <c r="I68">
         <v>17.928000000000001</v>
       </c>
     </row>
@@ -5170,20 +5199,20 @@
         <v>25.882570999999999</v>
       </c>
       <c r="B69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.37863399999999814</v>
       </c>
       <c r="C69">
         <v>17.928000000000001</v>
       </c>
-      <c r="F69">
+      <c r="G69">
         <v>25.899491000000001</v>
       </c>
-      <c r="G69">
-        <f t="shared" si="3"/>
+      <c r="H69">
+        <f t="shared" si="2"/>
         <v>0.39555400000000063</v>
       </c>
-      <c r="H69">
+      <c r="I69">
         <v>16.919</v>
       </c>
     </row>
@@ -5192,20 +5221,20 @@
         <v>25.899491000000001</v>
       </c>
       <c r="B70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.39555400000000063</v>
       </c>
       <c r="C70">
         <v>16.919</v>
       </c>
-      <c r="F70">
+      <c r="G70">
         <v>25.914656999999998</v>
       </c>
-      <c r="G70">
-        <f t="shared" si="3"/>
+      <c r="H70">
+        <f t="shared" si="2"/>
         <v>0.41071999999999775</v>
       </c>
-      <c r="H70">
+      <c r="I70">
         <v>15.166</v>
       </c>
     </row>
@@ -5214,20 +5243,20 @@
         <v>25.914656999999998</v>
       </c>
       <c r="B71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.41071999999999775</v>
       </c>
       <c r="C71">
         <v>15.166</v>
       </c>
-      <c r="F71">
+      <c r="G71">
         <v>25.931206</v>
       </c>
-      <c r="G71">
-        <f t="shared" si="3"/>
+      <c r="H71">
+        <f t="shared" si="2"/>
         <v>0.42726899999999901</v>
       </c>
-      <c r="H71">
+      <c r="I71">
         <v>16.55</v>
       </c>
     </row>
@@ -5236,20 +5265,20 @@
         <v>25.931206</v>
       </c>
       <c r="B72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.42726899999999901</v>
       </c>
       <c r="C72">
         <v>16.55</v>
       </c>
-      <c r="F72">
+      <c r="G72">
         <v>25.956247999999999</v>
       </c>
-      <c r="G72">
-        <f t="shared" si="3"/>
+      <c r="H72">
+        <f t="shared" si="2"/>
         <v>0.45231099999999813</v>
       </c>
-      <c r="H72">
+      <c r="I72">
         <v>25.041</v>
       </c>
     </row>
@@ -5258,20 +5287,20 @@
         <v>25.956247999999999</v>
       </c>
       <c r="B73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.45231099999999813</v>
       </c>
       <c r="C73">
         <v>25.041</v>
       </c>
-      <c r="F73">
+      <c r="G73">
         <v>25.971910999999999</v>
       </c>
-      <c r="G73">
-        <f t="shared" si="3"/>
+      <c r="H73">
+        <f t="shared" si="2"/>
         <v>0.46797399999999811</v>
       </c>
-      <c r="H73">
+      <c r="I73">
         <v>15.664</v>
       </c>
     </row>
@@ -5280,20 +5309,20 @@
         <v>25.971910999999999</v>
       </c>
       <c r="B74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.46797399999999811</v>
       </c>
       <c r="C74">
         <v>15.664</v>
       </c>
-      <c r="F74">
+      <c r="G74">
         <v>25.987549000000001</v>
       </c>
-      <c r="G74">
-        <f t="shared" si="3"/>
+      <c r="H74">
+        <f t="shared" si="2"/>
         <v>0.48361200000000082</v>
       </c>
-      <c r="H74">
+      <c r="I74">
         <v>15.637</v>
       </c>
     </row>
@@ -5302,20 +5331,20 @@
         <v>25.987549000000001</v>
       </c>
       <c r="B75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.48361200000000082</v>
       </c>
       <c r="C75">
         <v>15.637</v>
       </c>
-      <c r="F75">
+      <c r="G75">
         <v>26.003133999999999</v>
       </c>
-      <c r="G75">
-        <f t="shared" si="3"/>
+      <c r="H75">
+        <f t="shared" si="2"/>
         <v>0.49919699999999878</v>
       </c>
-      <c r="H75">
+      <c r="I75">
         <v>15.585000000000001</v>
       </c>
     </row>
@@ -5324,20 +5353,20 @@
         <v>26.003133999999999</v>
       </c>
       <c r="B76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.49919699999999878</v>
       </c>
       <c r="C76">
         <v>15.585000000000001</v>
       </c>
-      <c r="F76">
+      <c r="G76">
         <v>26.018830999999999</v>
       </c>
-      <c r="G76">
-        <f t="shared" si="3"/>
+      <c r="H76">
+        <f t="shared" si="2"/>
         <v>0.51489399999999819</v>
       </c>
-      <c r="H76">
+      <c r="I76">
         <v>15.698</v>
       </c>
     </row>
@@ -5346,20 +5375,20 @@
         <v>26.018830999999999</v>
       </c>
       <c r="B77">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.51489399999999819</v>
       </c>
       <c r="C77">
         <v>15.698</v>
       </c>
-      <c r="F77">
+      <c r="G77">
         <v>26.034419</v>
       </c>
-      <c r="G77">
-        <f t="shared" si="3"/>
+      <c r="H77">
+        <f t="shared" si="2"/>
         <v>0.53048199999999923</v>
       </c>
-      <c r="H77">
+      <c r="I77">
         <v>15.587</v>
       </c>
     </row>
@@ -5368,20 +5397,20 @@
         <v>26.034419</v>
       </c>
       <c r="B78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.53048199999999923</v>
       </c>
       <c r="C78">
         <v>15.587</v>
       </c>
-      <c r="F78">
+      <c r="G78">
         <v>26.05</v>
       </c>
-      <c r="G78">
-        <f t="shared" si="3"/>
+      <c r="H78">
+        <f t="shared" si="2"/>
         <v>0.54606300000000019</v>
       </c>
-      <c r="H78">
+      <c r="I78">
         <v>15.582000000000001</v>
       </c>
     </row>
@@ -5390,20 +5419,20 @@
         <v>26.05</v>
       </c>
       <c r="B79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.54606300000000019</v>
       </c>
       <c r="C79">
         <v>15.582000000000001</v>
       </c>
-      <c r="F79">
+      <c r="G79">
         <v>26.065588000000002</v>
       </c>
-      <c r="G79">
-        <f t="shared" si="3"/>
+      <c r="H79">
+        <f t="shared" si="2"/>
         <v>0.56165100000000123</v>
       </c>
-      <c r="H79">
+      <c r="I79">
         <v>15.587999999999999</v>
       </c>
       <c r="M79" s="1"/>
@@ -5413,20 +5442,20 @@
         <v>26.065588000000002</v>
       </c>
       <c r="B80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.56165100000000123</v>
       </c>
       <c r="C80">
         <v>15.587999999999999</v>
       </c>
-      <c r="F80">
+      <c r="G80">
         <v>26.081226000000001</v>
       </c>
-      <c r="G80">
-        <f t="shared" si="3"/>
+      <c r="H80">
+        <f t="shared" si="2"/>
         <v>0.57728900000000039</v>
       </c>
-      <c r="H80">
+      <c r="I80">
         <v>15.637</v>
       </c>
       <c r="M80" s="1"/>
@@ -5436,20 +5465,20 @@
         <v>26.081226000000001</v>
       </c>
       <c r="B81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.57728900000000039</v>
       </c>
       <c r="C81">
         <v>15.637</v>
       </c>
-      <c r="F81">
+      <c r="G81">
         <v>26.096910000000001</v>
       </c>
-      <c r="G81">
-        <f t="shared" si="3"/>
+      <c r="H81">
+        <f t="shared" si="2"/>
         <v>0.59297300000000064</v>
       </c>
-      <c r="H81">
+      <c r="I81">
         <v>15.685</v>
       </c>
       <c r="M81" s="1"/>
@@ -5459,20 +5488,20 @@
         <v>26.096910000000001</v>
       </c>
       <c r="B82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.59297300000000064</v>
       </c>
       <c r="C82">
         <v>15.685</v>
       </c>
-      <c r="F82">
+      <c r="G82">
         <v>26.112501999999999</v>
       </c>
-      <c r="G82">
-        <f t="shared" si="3"/>
+      <c r="H82">
+        <f t="shared" si="2"/>
         <v>0.60856499999999869</v>
       </c>
-      <c r="H82">
+      <c r="I82">
         <v>15.590999999999999</v>
       </c>
       <c r="M82" s="1"/>
@@ -5482,20 +5511,20 @@
         <v>26.112501999999999</v>
       </c>
       <c r="B83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.60856499999999869</v>
       </c>
       <c r="C83">
         <v>15.590999999999999</v>
       </c>
-      <c r="F83">
+      <c r="G83">
         <v>26.128278000000002</v>
       </c>
-      <c r="G83">
-        <f t="shared" si="3"/>
+      <c r="H83">
+        <f t="shared" si="2"/>
         <v>0.62434100000000115</v>
       </c>
-      <c r="H83">
+      <c r="I83">
         <v>15.776</v>
       </c>
       <c r="M83" s="1"/>
@@ -5505,20 +5534,20 @@
         <v>26.128278000000002</v>
       </c>
       <c r="B84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.62434100000000115</v>
       </c>
       <c r="C84">
         <v>15.776</v>
       </c>
-      <c r="F84">
+      <c r="G84">
         <v>26.143723000000001</v>
       </c>
-      <c r="G84">
-        <f t="shared" si="3"/>
+      <c r="H84">
+        <f t="shared" si="2"/>
         <v>0.63978600000000085</v>
       </c>
-      <c r="H84">
+      <c r="I84">
         <v>15.446</v>
       </c>
     </row>
@@ -5527,20 +5556,20 @@
         <v>26.143723000000001</v>
       </c>
       <c r="B85">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.63978600000000085</v>
       </c>
       <c r="C85">
         <v>15.446</v>
       </c>
-      <c r="F85">
+      <c r="G85">
         <v>26.159338999999999</v>
       </c>
-      <c r="G85">
-        <f t="shared" si="3"/>
+      <c r="H85">
+        <f t="shared" si="2"/>
         <v>0.65540199999999871</v>
       </c>
-      <c r="H85">
+      <c r="I85">
         <v>15.616</v>
       </c>
     </row>
@@ -5549,20 +5578,20 @@
         <v>26.159338999999999</v>
       </c>
       <c r="B86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.65540199999999871</v>
       </c>
       <c r="C86">
         <v>15.616</v>
       </c>
-      <c r="F86">
+      <c r="G86">
         <v>26.174931999999998</v>
       </c>
-      <c r="G86">
-        <f t="shared" si="3"/>
+      <c r="H86">
+        <f t="shared" si="2"/>
         <v>0.67099499999999779</v>
       </c>
-      <c r="H86">
+      <c r="I86">
         <v>15.592000000000001</v>
       </c>
     </row>
@@ -5571,20 +5600,20 @@
         <v>26.174931999999998</v>
       </c>
       <c r="B87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.67099499999999779</v>
       </c>
       <c r="C87">
         <v>15.592000000000001</v>
       </c>
-      <c r="F87">
+      <c r="G87">
         <v>26.190587000000001</v>
       </c>
-      <c r="G87">
-        <f t="shared" si="3"/>
+      <c r="H87">
+        <f t="shared" si="2"/>
         <v>0.6866500000000002</v>
       </c>
-      <c r="H87">
+      <c r="I87">
         <v>15.656000000000001</v>
       </c>
     </row>
@@ -5593,20 +5622,20 @@
         <v>26.190587000000001</v>
       </c>
       <c r="B88">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.6866500000000002</v>
       </c>
       <c r="C88">
         <v>15.656000000000001</v>
       </c>
-      <c r="F88">
+      <c r="G88">
         <v>26.206213000000002</v>
       </c>
-      <c r="G88">
-        <f t="shared" si="3"/>
+      <c r="H88">
+        <f t="shared" si="2"/>
         <v>0.70227600000000123</v>
       </c>
-      <c r="H88">
+      <c r="I88">
         <v>15.625999999999999</v>
       </c>
     </row>
@@ -5615,20 +5644,20 @@
         <v>26.206213000000002</v>
       </c>
       <c r="B89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.70227600000000123</v>
       </c>
       <c r="C89">
         <v>15.625999999999999</v>
       </c>
-      <c r="F89">
+      <c r="G89">
         <v>26.221841000000001</v>
       </c>
-      <c r="G89">
-        <f t="shared" si="3"/>
+      <c r="H89">
+        <f t="shared" si="2"/>
         <v>0.71790400000000076</v>
       </c>
-      <c r="H89">
+      <c r="I89">
         <v>15.627000000000001</v>
       </c>
     </row>
@@ -5637,20 +5666,20 @@
         <v>26.221841000000001</v>
       </c>
       <c r="B90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.71790400000000076</v>
       </c>
       <c r="C90">
         <v>15.627000000000001</v>
       </c>
-      <c r="F90">
+      <c r="G90">
         <v>26.237570999999999</v>
       </c>
-      <c r="G90">
-        <f t="shared" si="3"/>
+      <c r="H90">
+        <f t="shared" si="2"/>
         <v>0.73363399999999857</v>
       </c>
-      <c r="H90">
+      <c r="I90">
         <v>15.731</v>
       </c>
     </row>
@@ -5659,20 +5688,20 @@
         <v>26.237570999999999</v>
       </c>
       <c r="B91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.73363399999999857</v>
       </c>
       <c r="C91">
         <v>15.731</v>
       </c>
-      <c r="F91">
+      <c r="G91">
         <v>26.252965</v>
       </c>
-      <c r="G91">
-        <f t="shared" si="3"/>
+      <c r="H91">
+        <f t="shared" si="2"/>
         <v>0.74902799999999914</v>
       </c>
-      <c r="H91">
+      <c r="I91">
         <v>15.394</v>
       </c>
     </row>
@@ -5681,20 +5710,20 @@
         <v>26.252965</v>
       </c>
       <c r="B92">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.74902799999999914</v>
       </c>
       <c r="C92">
         <v>15.394</v>
       </c>
-      <c r="F92">
+      <c r="G92">
         <v>26.268698000000001</v>
       </c>
-      <c r="G92">
-        <f t="shared" si="3"/>
+      <c r="H92">
+        <f t="shared" si="2"/>
         <v>0.76476100000000002</v>
       </c>
-      <c r="H92">
+      <c r="I92">
         <v>15.733000000000001</v>
       </c>
     </row>
@@ -5703,20 +5732,20 @@
         <v>26.268698000000001</v>
       </c>
       <c r="B93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.76476100000000002</v>
       </c>
       <c r="C93">
         <v>15.733000000000001</v>
       </c>
-      <c r="F93">
+      <c r="G93">
         <v>26.284362000000002</v>
       </c>
-      <c r="G93">
-        <f t="shared" si="3"/>
+      <c r="H93">
+        <f t="shared" si="2"/>
         <v>0.78042500000000103</v>
       </c>
-      <c r="H93">
+      <c r="I93">
         <v>15.663</v>
       </c>
     </row>
@@ -5725,20 +5754,20 @@
         <v>26.284362000000002</v>
       </c>
       <c r="B94">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.78042500000000103</v>
       </c>
       <c r="C94">
         <v>15.663</v>
       </c>
-      <c r="F94">
+      <c r="G94">
         <v>26.299951</v>
       </c>
-      <c r="G94">
-        <f t="shared" si="3"/>
+      <c r="H94">
+        <f t="shared" si="2"/>
         <v>0.79601399999999956</v>
       </c>
-      <c r="H94">
+      <c r="I94">
         <v>15.589</v>
       </c>
     </row>
@@ -5747,20 +5776,20 @@
         <v>26.299951</v>
       </c>
       <c r="B95">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.79601399999999956</v>
       </c>
       <c r="C95">
         <v>15.589</v>
       </c>
-      <c r="F95">
+      <c r="G95">
         <v>26.315546000000001</v>
       </c>
-      <c r="G95">
-        <f t="shared" si="3"/>
+      <c r="H95">
+        <f t="shared" si="2"/>
         <v>0.81160900000000069</v>
       </c>
-      <c r="H95">
+      <c r="I95">
         <v>15.595000000000001</v>
       </c>
     </row>
@@ -5769,469 +5798,469 @@
         <v>26.315546000000001</v>
       </c>
       <c r="B96">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.81160900000000069</v>
       </c>
       <c r="C96">
         <v>15.595000000000001</v>
       </c>
-      <c r="F96">
+      <c r="G96">
         <v>26.331171999999999</v>
       </c>
-      <c r="G96">
-        <f t="shared" si="3"/>
+      <c r="H96">
+        <f t="shared" si="2"/>
         <v>0.82723499999999817</v>
       </c>
-      <c r="H96">
+      <c r="I96">
         <v>15.627000000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>26.331171999999999</v>
       </c>
       <c r="B97">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.82723499999999817</v>
       </c>
       <c r="C97">
         <v>15.627000000000001</v>
       </c>
-      <c r="F97">
+      <c r="G97">
         <v>26.346726</v>
       </c>
-      <c r="G97">
-        <f t="shared" si="3"/>
+      <c r="H97">
+        <f t="shared" si="2"/>
         <v>0.84278899999999979</v>
       </c>
-      <c r="H97">
+      <c r="I97">
         <v>15.554</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>26.346726</v>
       </c>
       <c r="B98">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.84278899999999979</v>
       </c>
       <c r="C98">
         <v>15.554</v>
       </c>
-      <c r="F98">
+      <c r="G98">
         <v>26.362653999999999</v>
       </c>
-      <c r="G98">
-        <f t="shared" si="3"/>
+      <c r="H98">
+        <f t="shared" si="2"/>
         <v>0.85871699999999862</v>
       </c>
-      <c r="H98">
+      <c r="I98">
         <v>15.928000000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>26.362653999999999</v>
       </c>
       <c r="B99">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.85871699999999862</v>
       </c>
       <c r="C99">
         <v>15.928000000000001</v>
       </c>
-      <c r="F99">
+      <c r="G99">
         <v>26.378056000000001</v>
       </c>
-      <c r="G99">
-        <f t="shared" si="3"/>
+      <c r="H99">
+        <f t="shared" si="2"/>
         <v>0.87411900000000031</v>
       </c>
-      <c r="H99">
+      <c r="I99">
         <v>15.401</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>26.378056000000001</v>
       </c>
       <c r="B100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.87411900000000031</v>
       </c>
       <c r="C100">
         <v>15.401</v>
       </c>
-      <c r="F100">
+      <c r="G100">
         <v>26.390453000000001</v>
       </c>
-      <c r="G100">
-        <f t="shared" si="3"/>
+      <c r="H100">
+        <f t="shared" si="2"/>
         <v>0.8865160000000003</v>
       </c>
-      <c r="H100">
+      <c r="I100">
         <v>12.397</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>26.390453000000001</v>
       </c>
       <c r="B101">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.8865160000000003</v>
       </c>
       <c r="C101">
         <v>12.397</v>
       </c>
-      <c r="F101">
+      <c r="G101">
         <v>26.409243</v>
       </c>
-      <c r="G101">
-        <f t="shared" si="3"/>
+      <c r="H101">
+        <f t="shared" si="2"/>
         <v>0.9053059999999995</v>
       </c>
-      <c r="H101">
+      <c r="I101">
         <v>18.79</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>26.409243</v>
       </c>
       <c r="B102">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.9053059999999995</v>
       </c>
       <c r="C102">
         <v>18.79</v>
       </c>
-      <c r="F102">
+      <c r="G102">
         <v>26.424865</v>
       </c>
-      <c r="G102">
-        <f t="shared" si="3"/>
+      <c r="H102">
+        <f t="shared" si="2"/>
         <v>0.92092799999999997</v>
       </c>
-      <c r="H102">
+      <c r="I102">
         <v>15.622999999999999</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>26.424865</v>
       </c>
       <c r="B103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.92092799999999997</v>
       </c>
       <c r="C103">
         <v>15.622999999999999</v>
       </c>
-      <c r="F103">
+      <c r="G103">
         <v>26.440567999999999</v>
       </c>
-      <c r="G103">
-        <f t="shared" si="3"/>
+      <c r="H103">
+        <f t="shared" si="2"/>
         <v>0.93663099999999844</v>
       </c>
-      <c r="H103">
+      <c r="I103">
         <v>15.702999999999999</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>26.440567999999999</v>
       </c>
       <c r="B104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.93663099999999844</v>
       </c>
       <c r="C104">
         <v>15.702999999999999</v>
       </c>
-      <c r="F104">
+      <c r="G104">
         <v>26.456181999999998</v>
       </c>
-      <c r="G104">
-        <f t="shared" si="3"/>
+      <c r="H104">
+        <f t="shared" si="2"/>
         <v>0.95224499999999779</v>
       </c>
-      <c r="H104">
+      <c r="I104">
         <v>15.614000000000001</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>26.456181999999998</v>
       </c>
       <c r="B105">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.95224499999999779</v>
       </c>
       <c r="C105">
         <v>15.614000000000001</v>
       </c>
-      <c r="F105">
+      <c r="G105">
         <v>26.467983</v>
       </c>
-      <c r="G105">
-        <f t="shared" si="3"/>
+      <c r="H105">
+        <f t="shared" si="2"/>
         <v>0.96404599999999974</v>
       </c>
-      <c r="H105">
+      <c r="I105">
         <v>11.801</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>26.467983</v>
       </c>
       <c r="B106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.96404599999999974</v>
       </c>
       <c r="C106">
         <v>11.801</v>
       </c>
-      <c r="F106">
+      <c r="G106">
         <v>26.480072</v>
       </c>
-      <c r="G106">
-        <f t="shared" si="3"/>
+      <c r="H106">
+        <f t="shared" si="2"/>
         <v>0.97613499999999931</v>
       </c>
-      <c r="H106">
+      <c r="I106">
         <v>12.087999999999999</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>26.480072</v>
       </c>
       <c r="B107">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.97613499999999931</v>
       </c>
       <c r="C107">
         <v>12.087999999999999</v>
       </c>
-      <c r="F107">
+      <c r="G107">
         <v>26.495661999999999</v>
       </c>
-      <c r="G107">
-        <f t="shared" si="3"/>
+      <c r="H107">
+        <f t="shared" si="2"/>
         <v>0.99172499999999886</v>
       </c>
-      <c r="H107">
+      <c r="I107">
         <v>15.590999999999999</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>26.495661999999999</v>
       </c>
       <c r="B108">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.99172499999999886</v>
       </c>
       <c r="C108">
         <v>15.590999999999999</v>
       </c>
-      <c r="F108">
+      <c r="G108">
         <v>26.511305</v>
       </c>
-      <c r="G108">
-        <f t="shared" si="3"/>
+      <c r="H108">
+        <f t="shared" si="2"/>
         <v>1.0073679999999996</v>
       </c>
-      <c r="H108">
+      <c r="I108">
         <v>15.641999999999999</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>26.511305</v>
       </c>
       <c r="B109">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.0073679999999996</v>
       </c>
       <c r="C109">
         <v>15.641999999999999</v>
       </c>
-      <c r="F109">
+      <c r="G109">
         <v>26.526779000000001</v>
       </c>
-      <c r="G109">
-        <f t="shared" si="3"/>
+      <c r="H109">
+        <f t="shared" si="2"/>
         <v>1.0228420000000007</v>
       </c>
-      <c r="H109">
+      <c r="I109">
         <v>15.475</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>26.526779000000001</v>
       </c>
       <c r="B110">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.0228420000000007</v>
       </c>
       <c r="C110">
         <v>15.475</v>
       </c>
-      <c r="F110">
+      <c r="G110">
         <v>26.542553000000002</v>
       </c>
-      <c r="G110">
-        <f t="shared" si="3"/>
+      <c r="H110">
+        <f t="shared" si="2"/>
         <v>1.0386160000000011</v>
       </c>
-      <c r="H110">
+      <c r="I110">
         <v>15.773999999999999</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>26.542553000000002</v>
       </c>
       <c r="B111">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.0386160000000011</v>
       </c>
       <c r="C111">
         <v>15.773999999999999</v>
       </c>
-      <c r="F111">
+      <c r="G111">
         <v>26.558098000000001</v>
       </c>
-      <c r="G111">
-        <f t="shared" si="3"/>
+      <c r="H111">
+        <f t="shared" si="2"/>
         <v>1.0541610000000006</v>
       </c>
-      <c r="H111">
+      <c r="I111">
         <v>15.544</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>26.558098000000001</v>
       </c>
       <c r="B112">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.0541610000000006</v>
       </c>
       <c r="C112">
         <v>15.544</v>
       </c>
-      <c r="F112">
+      <c r="G112">
         <v>26.573754000000001</v>
       </c>
-      <c r="G112">
-        <f t="shared" si="3"/>
+      <c r="H112">
+        <f t="shared" si="2"/>
         <v>1.0698170000000005</v>
       </c>
-      <c r="H112">
+      <c r="I112">
         <v>15.656000000000001</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>26.573754000000001</v>
       </c>
       <c r="B113">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.0698170000000005</v>
       </c>
       <c r="C113">
         <v>15.656000000000001</v>
       </c>
-      <c r="F113">
+      <c r="G113">
         <v>26.589400000000001</v>
       </c>
-      <c r="G113">
-        <f t="shared" si="3"/>
+      <c r="H113">
+        <f t="shared" si="2"/>
         <v>1.0854630000000007</v>
       </c>
-      <c r="H113">
+      <c r="I113">
         <v>15.646000000000001</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>26.589400000000001</v>
       </c>
       <c r="B114">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.0854630000000007</v>
       </c>
       <c r="C114">
         <v>15.646000000000001</v>
       </c>
-      <c r="F114">
+      <c r="G114">
         <v>26.604893000000001</v>
       </c>
-      <c r="G114">
-        <f t="shared" si="3"/>
+      <c r="H114">
+        <f t="shared" si="2"/>
         <v>1.100956</v>
       </c>
-      <c r="H114">
+      <c r="I114">
         <v>15.494</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>26.604893000000001</v>
       </c>
       <c r="B115">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.100956</v>
       </c>
       <c r="C115">
         <v>15.494</v>
       </c>
-      <c r="F115">
+      <c r="G115">
         <v>26.636265000000002</v>
       </c>
-      <c r="G115">
-        <f t="shared" si="3"/>
+      <c r="H115">
+        <f t="shared" si="2"/>
         <v>1.1323280000000011</v>
       </c>
-      <c r="H115">
+      <c r="I115">
         <v>31.370999999999999</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>26.636265000000002</v>
       </c>
       <c r="B116">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.1323280000000011</v>
       </c>
       <c r="C116">
         <v>31.370999999999999</v>
       </c>
-      <c r="F116">
+      <c r="G116">
         <v>26.651823</v>
       </c>
-      <c r="G116">
-        <f t="shared" si="3"/>
+      <c r="H116">
+        <f t="shared" si="2"/>
         <v>1.1478859999999997</v>
       </c>
-      <c r="H116">
+      <c r="I116">
         <v>15.558</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>26.651823</v>
       </c>
       <c r="B117">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.1478859999999997</v>
       </c>
       <c r="C117">
